--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-418864.8246098398</v>
+        <v>-421566.0412612971</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>225.403139763615</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>244.8448976285501</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>83.39636417672389</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>93.9059665338834</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>19.62758079759072</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>73.71536461908249</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>356.3265794398795</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>313.6653863299501</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.86836786264114</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>16.99673504059111</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.36018225871365</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>163.1958377150806</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643479</v>
+        <v>1.905236112643379</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>26.77829639111918</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>165.3930424762521</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>224.9962407768323</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.2020604930738</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>230.8127283073657</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>250.1473972498989</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>100.5594534927127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>142.8672118925193</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>167.4180527286764</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>54.3264904208969</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>42.71572132711296</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060374</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>255.3840664016663</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>121.8070385036053</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>81.13054509253735</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673019</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599952</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>187.2551470558689</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>214.0647808588581</v>
+        <v>228.9553704673017</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3472,13 +3472,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797025</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673015</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>100.0416311957214</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797024</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="D2" t="n">
-        <v>294.4202677165019</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165019</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388467</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388467</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="X2" t="n">
-        <v>522.1002068716687</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>534.7928453799753</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>411.1078750723515</v>
+        <v>280.8187272956868</v>
       </c>
       <c r="C3" t="n">
-        <v>411.1078750723515</v>
+        <v>280.8187272956868</v>
       </c>
       <c r="D3" t="n">
-        <v>411.1078750723515</v>
+        <v>280.8187272956868</v>
       </c>
       <c r="E3" t="n">
-        <v>251.870420066896</v>
+        <v>121.5812722902313</v>
       </c>
       <c r="F3" t="n">
-        <v>105.335862093781</v>
+        <v>121.5812722902313</v>
       </c>
       <c r="G3" t="n">
-        <v>105.335862093781</v>
+        <v>121.5812722902313</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
         <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278689</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>960.0010083556373</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>763.1919299870749</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>535.0560840238884</v>
       </c>
       <c r="V3" t="n">
-        <v>826.7196740428383</v>
+        <v>535.0560840238884</v>
       </c>
       <c r="W3" t="n">
-        <v>826.7196740428383</v>
+        <v>280.8187272956868</v>
       </c>
       <c r="X3" t="n">
-        <v>618.8681738373054</v>
+        <v>280.8187272956868</v>
       </c>
       <c r="Y3" t="n">
-        <v>411.1078750723515</v>
+        <v>280.8187272956868</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.7059716361716</v>
+        <v>463.1675281592796</v>
       </c>
       <c r="C4" t="n">
-        <v>159.7059716361716</v>
+        <v>463.1675281592796</v>
       </c>
       <c r="D4" t="n">
-        <v>159.7059716361716</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="E4" t="n">
-        <v>159.7059716361716</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7059716361716</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>906.2371526512221</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>680.7681164092364</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>414.3904598420585</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V4" t="n">
-        <v>159.7059716361716</v>
+        <v>644.8159929895194</v>
       </c>
       <c r="W4" t="n">
-        <v>159.7059716361716</v>
+        <v>644.8159929895194</v>
       </c>
       <c r="X4" t="n">
-        <v>159.7059716361716</v>
+        <v>644.8159929895194</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.7059716361716</v>
+        <v>644.8159929895194</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.1107921235788</v>
+        <v>1058.933786174688</v>
       </c>
       <c r="C5" t="n">
-        <v>50.18495430551874</v>
+        <v>1058.933786174688</v>
       </c>
       <c r="D5" t="n">
-        <v>50.18495430551874</v>
+        <v>1058.933786174688</v>
       </c>
       <c r="E5" t="n">
-        <v>50.18495430551874</v>
+        <v>673.1455335764433</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631528</v>
+        <v>356.3118100108371</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523454</v>
+        <v>343.7673746797564</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523454</v>
+        <v>30.69501822523461</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523454</v>
+        <v>30.69501822523461</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275175</v>
+        <v>93.76641159275198</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245567</v>
+        <v>239.0325989245574</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825647</v>
+        <v>456.1499114825656</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748877</v>
+        <v>729.4041931748891</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202382</v>
+        <v>1011.693823202384</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798416</v>
+        <v>1264.916654798418</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189413</v>
+        <v>1446.535482189416</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261727</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261727</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518255</v>
+        <v>1389.996673518258</v>
       </c>
       <c r="T5" t="n">
-        <v>1389.996673518255</v>
+        <v>1389.996673518258</v>
       </c>
       <c r="U5" t="n">
-        <v>1136.345205654773</v>
+        <v>1389.996673518258</v>
       </c>
       <c r="V5" t="n">
-        <v>1136.345205654773</v>
+        <v>1058.933786174688</v>
       </c>
       <c r="W5" t="n">
-        <v>783.5765503846587</v>
+        <v>1058.933786174688</v>
       </c>
       <c r="X5" t="n">
-        <v>410.1107921235788</v>
+        <v>1058.933786174688</v>
       </c>
       <c r="Y5" t="n">
-        <v>410.1107921235788</v>
+        <v>1058.933786174688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177.2295761983496</v>
+        <v>539.2097235015294</v>
       </c>
       <c r="C6" t="n">
-        <v>177.2295761983496</v>
+        <v>522.0413042686091</v>
       </c>
       <c r="D6" t="n">
-        <v>177.2295761983496</v>
+        <v>373.1068946073578</v>
       </c>
       <c r="E6" t="n">
-        <v>177.2295761983496</v>
+        <v>213.8694396019024</v>
       </c>
       <c r="F6" t="n">
-        <v>30.69501822523454</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523454</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523454</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523454</v>
+        <v>30.69501822523461</v>
       </c>
       <c r="J6" t="n">
-        <v>49.4420610756344</v>
+        <v>49.44206107563463</v>
       </c>
       <c r="K6" t="n">
-        <v>159.638568016945</v>
+        <v>159.6385680169455</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482972</v>
+        <v>354.1339118482982</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537517</v>
+        <v>600.4576725190448</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259744</v>
+        <v>867.709535091268</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891493</v>
+        <v>1089.972982256787</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090182</v>
+        <v>1469.823832794066</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261727</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261727</v>
+        <v>1530.346686757979</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655822</v>
+        <v>1385.878273152074</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207506</v>
+        <v>1189.973630703759</v>
       </c>
       <c r="U6" t="n">
-        <v>966.2567715281107</v>
+        <v>1189.973630703759</v>
       </c>
       <c r="V6" t="n">
-        <v>731.104663296368</v>
+        <v>954.8215224720161</v>
       </c>
       <c r="W6" t="n">
-        <v>476.8673065681664</v>
+        <v>954.8215224720161</v>
       </c>
       <c r="X6" t="n">
-        <v>269.0158063626336</v>
+        <v>746.9700222664833</v>
       </c>
       <c r="Y6" t="n">
-        <v>269.0158063626336</v>
+        <v>539.2097235015294</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.61949914709665</v>
+        <v>345.3768732497732</v>
       </c>
       <c r="C7" t="n">
-        <v>32.61949914709665</v>
+        <v>180.5325927294897</v>
       </c>
       <c r="D7" t="n">
-        <v>32.61949914709665</v>
+        <v>180.5325927294897</v>
       </c>
       <c r="E7" t="n">
-        <v>32.61949914709665</v>
+        <v>32.61949914709661</v>
       </c>
       <c r="F7" t="n">
-        <v>32.61949914709665</v>
+        <v>32.61949914709661</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709665</v>
+        <v>32.61949914709661</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709665</v>
+        <v>32.61949914709661</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709665</v>
+        <v>32.61949914709661</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523454</v>
+        <v>30.69501822523461</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223269</v>
+        <v>157.4322756223271</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830393</v>
+        <v>375.1387655830397</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388159</v>
+        <v>615.0688576388166</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974833</v>
+        <v>854.7285647974842</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.076798891674</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934023</v>
+        <v>1212.267005934024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495187</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495185</v>
+        <v>1113.866490402744</v>
       </c>
       <c r="S7" t="n">
-        <v>1207.151752261731</v>
+        <v>1113.866490402744</v>
       </c>
       <c r="T7" t="n">
-        <v>1207.151752261731</v>
+        <v>889.2012322792885</v>
       </c>
       <c r="U7" t="n">
-        <v>1207.151752261731</v>
+        <v>600.0613614556601</v>
       </c>
       <c r="V7" t="n">
-        <v>952.4672640558445</v>
+        <v>345.3768732497732</v>
       </c>
       <c r="W7" t="n">
-        <v>663.0500940188838</v>
+        <v>345.3768732497732</v>
       </c>
       <c r="X7" t="n">
-        <v>435.0605431208664</v>
+        <v>345.3768732497732</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.2679639773364</v>
+        <v>345.3768732497732</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1855.42872127137</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>1737.614716642644</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1379.349018035893</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>993.5607654376488</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>582.5748606480413</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X8" t="n">
-        <v>1855.42872127137</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y8" t="n">
-        <v>1855.42872127137</v>
+        <v>2106.577233583055</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>749.1451353350884</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>580.2089524071815</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>430.0923129948458</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>282.1792194124527</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>135.2892719145423</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>135.2892719145423</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>135.2892719145423</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063345</v>
+        <v>1403.301950067057</v>
       </c>
       <c r="W10" t="n">
-        <v>1158.783151063345</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="X10" t="n">
-        <v>930.7936001653281</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y10" t="n">
-        <v>930.7936001653281</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1789.352881002866</v>
+        <v>2040.546330724785</v>
       </c>
       <c r="C11" t="n">
-        <v>1420.390364062454</v>
+        <v>1671.583813784373</v>
       </c>
       <c r="D11" t="n">
-        <v>1062.124665455704</v>
+        <v>1313.318115177623</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.124665455704</v>
+        <v>927.5298625793782</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194422</v>
+        <v>516.5439577897707</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656976</v>
+        <v>695.1615405656956</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625332</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="T11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="U11" t="n">
-        <v>3623.389353917564</v>
+        <v>3623.389353917563</v>
       </c>
       <c r="V11" t="n">
-        <v>3292.326466573993</v>
+        <v>3292.326466573992</v>
       </c>
       <c r="W11" t="n">
-        <v>2939.557811303879</v>
+        <v>3190.751261025798</v>
       </c>
       <c r="X11" t="n">
-        <v>2566.092053042799</v>
+        <v>2817.285502764718</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.952721066988</v>
+        <v>2427.146170788907</v>
       </c>
     </row>
     <row r="12">
@@ -5103,28 +5103,28 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046653</v>
+        <v>354.473570333545</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929952</v>
+        <v>773.1706109914965</v>
       </c>
       <c r="M12" t="n">
         <v>1011.185054749523</v>
@@ -5133,7 +5133,7 @@
         <v>1546.994364450733</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783256</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
         <v>2371.16628502803</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>544.5035818385566</v>
+        <v>710.9784189428855</v>
       </c>
       <c r="C13" t="n">
-        <v>375.5673989106496</v>
+        <v>542.0422360149786</v>
       </c>
       <c r="D13" t="n">
-        <v>225.4507594983139</v>
+        <v>391.9255966026428</v>
       </c>
       <c r="E13" t="n">
-        <v>77.53766591592073</v>
+        <v>391.9255966026428</v>
       </c>
       <c r="F13" t="n">
-        <v>77.53766591592073</v>
+        <v>245.0356491047325</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648142</v>
+        <v>364.1690246648144</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344807</v>
+        <v>710.5788654344809</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5224,25 +5224,25 @@
         <v>2137.362968742807</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276103</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="T13" t="n">
-        <v>1949.247121276103</v>
+        <v>1916.471636177248</v>
       </c>
       <c r="U13" t="n">
-        <v>1660.155428225554</v>
+        <v>1627.379943126699</v>
       </c>
       <c r="V13" t="n">
-        <v>1405.470940019667</v>
+        <v>1372.695454920812</v>
       </c>
       <c r="W13" t="n">
-        <v>1116.053769982707</v>
+        <v>1083.278284883851</v>
       </c>
       <c r="X13" t="n">
-        <v>946.9446258123263</v>
+        <v>855.2887339858339</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.1520466687963</v>
+        <v>855.2887339858339</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400718</v>
+        <v>707.6725264685178</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400718</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400718</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576787</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>219.0505596597683</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>219.0505596597683</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,13 +5437,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703115</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5513,7 +5513,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5525,13 +5525,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>726.9555321712447</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>558.019349243338</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1175.737662212792</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>947.7481113147749</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>726.9555321712447</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.6979859831843</v>
+        <v>762.5477693179083</v>
       </c>
       <c r="C22" t="n">
-        <v>755.7618030552774</v>
+        <v>762.5477693179083</v>
       </c>
       <c r="D22" t="n">
-        <v>755.7618030552774</v>
+        <v>612.4311299055726</v>
       </c>
       <c r="E22" t="n">
-        <v>607.8487094728843</v>
+        <v>612.4311299055726</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429799</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.139029956954</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y22" t="n">
-        <v>1106.346450813424</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>800.5007694647286</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.5645865368217</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6139,19 +6139,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>982.1492342949683</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270439</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908938</v>
@@ -6613,19 +6613,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6868,10 +6868,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="35">
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,28 +7072,28 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038341</v>
@@ -7120,10 +7120,10 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533435</v>
@@ -7135,7 +7135,7 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y37" t="n">
         <v>753.3092412490405</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656156</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2126.30946588025</v>
+        <v>1754.59783778797</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674363</v>
+        <v>1499.913349582083</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739385</v>
+        <v>982.5066286471047</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595855</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270441</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7828,25 +7828,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
         <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925703</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
         <v>753.3092412490405</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45.78351343583194</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636991</v>
+        <v>34.43939438636971</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>21.56058953000837</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>223.0281872106967</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>8.609690055161437</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>193.3273467878353</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>156.7286484918125</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>248.6815152247003</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>36.964768289418</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>58.29160266036075</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922651</v>
       </c>
       <c r="H16" t="n">
-        <v>97.57899151911093</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610408</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>31.13893193492466</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>23.61400951932596</v>
+        <v>19.07741329096464</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>67.48492792567501</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194176</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194255</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>99.26785128072206</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>72.11969353038609</v>
+        <v>57.22910392194242</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>186.1428431935227</v>
+        <v>65.54986409393086</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26071,13 +26071,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26317,43 +26317,43 @@
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="E2" t="n">
         <v>256406.2354960385</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="P2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657077</v>
+        <v>132804.2190657087</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929368</v>
+        <v>265413.0723929361</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545772</v>
+        <v>313577.1573545771</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704291</v>
+        <v>189308.268770429</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417434</v>
+        <v>30877.42926417463</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049552</v>
+        <v>65018.34502049527</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.4037127308</v>
+        <v>81897.40371273067</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202358</v>
+        <v>49839.57413202377</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>217460.7998099262</v>
+        <v>217460.7998099259</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676995</v>
@@ -26427,7 +26427,7 @@
         <v>12281.50162217159</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26436,25 +26436,25 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181816</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.650386675</v>
+        <v>72593.65038667506</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738564</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-708787.9292502952</v>
       </c>
       <c r="C6" t="n">
-        <v>-135494.0498098097</v>
+        <v>-135494.0498098104</v>
       </c>
       <c r="D6" t="n">
-        <v>-213733.1826479819</v>
+        <v>-213733.1826479811</v>
       </c>
       <c r="E6" t="n">
-        <v>-154589.9085480959</v>
+        <v>-154811.0398620705</v>
       </c>
       <c r="F6" t="n">
-        <v>-20316.40888465215</v>
+        <v>-20351.14681008777</v>
       </c>
       <c r="G6" t="n">
-        <v>168991.8598857771</v>
+        <v>168957.1219603412</v>
       </c>
       <c r="H6" t="n">
-        <v>168991.8598857769</v>
+        <v>168957.1219603412</v>
       </c>
       <c r="I6" t="n">
-        <v>168991.8598857769</v>
+        <v>168957.1219603411</v>
       </c>
       <c r="J6" t="n">
-        <v>99992.7054666629</v>
+        <v>99957.96754122709</v>
       </c>
       <c r="K6" t="n">
-        <v>138114.4306216026</v>
+        <v>138079.6926961666</v>
       </c>
       <c r="L6" t="n">
-        <v>103973.5148652814</v>
+        <v>103938.7769398459</v>
       </c>
       <c r="M6" t="n">
-        <v>87094.45617304616</v>
+        <v>87059.71824761051</v>
       </c>
       <c r="N6" t="n">
-        <v>119152.2857537534</v>
+        <v>119117.5478283174</v>
       </c>
       <c r="O6" t="n">
-        <v>168991.8598857769</v>
+        <v>168957.1219603411</v>
       </c>
       <c r="P6" t="n">
-        <v>168991.8598857769</v>
+        <v>168957.1219603412</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695754</v>
+        <v>717.3319511695762</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154318</v>
+        <v>383.6877278154327</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490087</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.276937400097</v>
+        <v>103.2769374000978</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479637</v>
+        <v>216.7329409479631</v>
       </c>
       <c r="E3" t="n">
         <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139256</v>
+        <v>119.9738478139265</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846069</v>
+        <v>256.8971042846062</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139254</v>
+        <v>119.9738478139265</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846072</v>
+        <v>256.8971042846062</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489696</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.4874641506399</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139256</v>
+        <v>119.9738478139265</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846069</v>
+        <v>256.8971042846062</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>129.2799018570679</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>167.9892770171599</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27433,16 +27433,16 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>16.08295609448585</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27506,10 +27506,10 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>53.24396887831537</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>185.091583446003</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>178.4222787047455</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>8.94631233112807</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>93.2106594117613</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863682</v>
+        <v>99.30025118863669</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.6648157872262</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>155.7117639477246</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951727</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713763</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>4.050983383547191</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>174.6952631148355</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>199.8798492947554</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>186.5514619961216</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>21.59453471082678</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>21.32491501646226</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365125</v>
+        <v>2.883746537365128</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579059</v>
+        <v>29.53316922579063</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.1756383817692</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756935</v>
+        <v>244.7543826756938</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023593</v>
+        <v>366.8233736023597</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952474</v>
+        <v>455.0768316952478</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791144</v>
+        <v>506.3606591791149</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284031</v>
+        <v>514.5541040284037</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974786</v>
+        <v>485.8788493974791</v>
       </c>
       <c r="P5" t="n">
-        <v>414.686356756277</v>
+        <v>414.6863567562775</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868884</v>
+        <v>311.4121838868887</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277622</v>
+        <v>181.1461434277624</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020785</v>
+        <v>65.71337422020792</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731584</v>
+        <v>12.62360046731586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.23069972298921</v>
+        <v>0.2306997229892102</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270408</v>
+        <v>1.542940423270409</v>
       </c>
       <c r="H6" t="n">
-        <v>14.9015561931642</v>
+        <v>14.90155619316422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189781</v>
+        <v>53.12316808189787</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862625</v>
+        <v>145.7740335862627</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453798</v>
+        <v>249.1510419453801</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438663</v>
+        <v>335.0143230438667</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874186</v>
+        <v>390.945913387419</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189119</v>
+        <v>401.2930884189123</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348675</v>
+        <v>367.1047769348679</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190658</v>
+        <v>294.6339480190662</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739559</v>
+        <v>196.9549915739561</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392937</v>
+        <v>95.79765189392948</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399198</v>
+        <v>28.65944163399201</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989053</v>
+        <v>6.219132670989059</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.1015092383730533</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141857</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907943</v>
+        <v>11.50083029907944</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572059</v>
+        <v>38.90055892572063</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040293</v>
+        <v>91.4539440040294</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401176</v>
+        <v>150.2869235401177</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545449</v>
+        <v>192.3155201545451</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773276</v>
+        <v>202.7697513773279</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022536</v>
+        <v>197.9483399022538</v>
       </c>
       <c r="O7" t="n">
-        <v>182.83733076696</v>
+        <v>182.8373307669602</v>
       </c>
       <c r="P7" t="n">
-        <v>156.448922596066</v>
+        <v>156.4489225960662</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266059</v>
+        <v>108.317124626606</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565112</v>
+        <v>58.16268574565119</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101763</v>
+        <v>22.54303853101765</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060661</v>
+        <v>5.526983886060667</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864683</v>
+        <v>0.07055724109864692</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
         <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495314</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206114</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>382.5526639806305</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
         <v>330.0946129047539</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
@@ -31926,28 +31926,28 @@
         <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34784,10 +34784,10 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>238.3094620181793</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900722</v>
+        <v>63.7084781490075</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573788</v>
+        <v>146.7335225573792</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252602</v>
+        <v>219.3104167252606</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518416</v>
+        <v>276.0144259518422</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318122</v>
+        <v>285.1410404318128</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757918</v>
+        <v>255.7806379757924</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010075</v>
+        <v>183.4533610010079</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.1064940124389</v>
+        <v>89.10649401243924</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959581</v>
+        <v>18.93640691959598</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710208</v>
+        <v>111.3096029710211</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639922</v>
+        <v>196.4599432639926</v>
       </c>
       <c r="M6" t="n">
-        <v>270.3724689954086</v>
+        <v>248.8118794654006</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355785</v>
+        <v>269.951376335579</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904231</v>
+        <v>224.5085324904235</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047356</v>
+        <v>383.6877278154327</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237835</v>
+        <v>65.58290754309603</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142347</v>
+        <v>128.0174317142349</v>
       </c>
       <c r="L7" t="n">
-        <v>219.905545414861</v>
+        <v>219.9055454148612</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391682</v>
+        <v>242.3536283391684</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814822</v>
+        <v>242.0805122814824</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809997</v>
+        <v>207.4224586809999</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609595</v>
+        <v>153.7274818609597</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.1550813749115</v>
+        <v>22.15508137491162</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>584.5244463807092</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
         <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073725</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>240.4186300586123</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
         <v>190.1128388187324</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
